--- a/Data/Prisons.xlsx
+++ b/Data/Prisons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\hypothesis-testing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BD4755-2403-4C25-A3D7-BF4A22BA7039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAF20FE-1020-4C4B-A732-165A2A05D740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4944" yWindow="3156" windowWidth="17280" windowHeight="8964" xr2:uid="{7D560AD9-8E32-4B18-9B9D-91238D6B6B34}"/>
+    <workbookView xWindow="5760" yWindow="2256" windowWidth="17280" windowHeight="8964" xr2:uid="{7D560AD9-8E32-4B18-9B9D-91238D6B6B34}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="1" r:id="rId1"/>
